--- a/data/chem_data_2.xlsx
+++ b/data/chem_data_2.xlsx
@@ -83,9 +83,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -188,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,14 +213,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -302,14 +293,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S168"/>
+  <dimension ref="A1:S152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF149" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="A149" activeCellId="0" sqref="A149"/>
+      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="A149" activeCellId="0" sqref="A149"/>
+      <selection pane="bottomRight" activeCell="A164" activeCellId="0" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,7 +321,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="15.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="18.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="21.55"/>
   </cols>
@@ -3728,135 +3719,26 @@
       <c r="R151" s="6"/>
       <c r="S151" s="6"/>
     </row>
-    <row r="152" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7"/>
-    </row>
-    <row r="153" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7"/>
-    </row>
-    <row r="154" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7"/>
-    </row>
-    <row r="155" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7"/>
-    </row>
-    <row r="156" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7"/>
-    </row>
-    <row r="157" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7"/>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7"/>
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
-      <c r="K159" s="8"/>
-      <c r="L159" s="8"/>
-      <c r="M159" s="8"/>
-      <c r="N159" s="8"/>
-      <c r="O159" s="8"/>
-      <c r="P159" s="8"/>
-      <c r="Q159" s="8"/>
-      <c r="R159" s="8"/>
-      <c r="S159" s="8"/>
-    </row>
-    <row r="160" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
-      <c r="K160" s="8"/>
-      <c r="L160" s="8"/>
-      <c r="M160" s="8"/>
-      <c r="N160" s="8"/>
-      <c r="O160" s="8"/>
-      <c r="P160" s="8"/>
-      <c r="Q160" s="8"/>
-      <c r="R160" s="8"/>
-      <c r="S160" s="8"/>
-    </row>
-    <row r="161" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7"/>
-      <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
-      <c r="K161" s="8"/>
-      <c r="L161" s="8"/>
-      <c r="M161" s="8"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="8"/>
-      <c r="P161" s="8"/>
-      <c r="Q161" s="8"/>
-      <c r="R161" s="8"/>
-      <c r="S161" s="8"/>
-    </row>
-    <row r="162" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
-      <c r="K162" s="8"/>
-      <c r="L162" s="8"/>
-      <c r="M162" s="8"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="8"/>
-      <c r="P162" s="8"/>
-      <c r="Q162" s="8"/>
-      <c r="R162" s="8"/>
-      <c r="S162" s="8"/>
-    </row>
-    <row r="163" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
-      <c r="K163" s="8"/>
-      <c r="L163" s="8"/>
-      <c r="M163" s="8"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="8"/>
-      <c r="P163" s="8"/>
-      <c r="Q163" s="8"/>
-      <c r="R163" s="8"/>
-      <c r="S163" s="8"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0"/>
+      <c r="C152" s="0"/>
+      <c r="D152" s="0"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
+      <c r="H152" s="0"/>
+      <c r="I152" s="0"/>
+      <c r="J152" s="0"/>
+      <c r="K152" s="0"/>
+      <c r="L152" s="0"/>
+      <c r="M152" s="0"/>
+      <c r="N152" s="0"/>
+      <c r="O152" s="0"/>
+      <c r="P152" s="0"/>
+      <c r="Q152" s="0"/>
+      <c r="R152" s="0"/>
+      <c r="S152" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
